--- a/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.09555419962525</v>
+        <v>15.22851171689977</v>
       </c>
       <c r="C2">
-        <v>15.43018995796162</v>
+        <v>8.687616626870415</v>
       </c>
       <c r="D2">
-        <v>4.263832684478286</v>
+        <v>5.046895497392046</v>
       </c>
       <c r="E2">
-        <v>10.54509688183971</v>
+        <v>13.00816650221426</v>
       </c>
       <c r="F2">
-        <v>36.8043815689836</v>
+        <v>33.82376880685038</v>
       </c>
       <c r="G2">
-        <v>2.06304043373746</v>
+        <v>2.106426066393697</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.3920879348528</v>
+        <v>13.3297669121845</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.49442621719443</v>
+        <v>15.39114981716876</v>
       </c>
       <c r="N2">
-        <v>13.76723226490337</v>
+        <v>15.90858207000777</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.49465067616336</v>
+        <v>14.18797381762664</v>
       </c>
       <c r="C3">
-        <v>14.31501774543401</v>
+        <v>8.071884431035857</v>
       </c>
       <c r="D3">
-        <v>4.331589930507058</v>
+        <v>5.114757901254033</v>
       </c>
       <c r="E3">
-        <v>9.915608836894538</v>
+        <v>12.11234353051248</v>
       </c>
       <c r="F3">
-        <v>34.96100887255074</v>
+        <v>32.61990452135717</v>
       </c>
       <c r="G3">
-        <v>2.074671290833395</v>
+        <v>2.11534629531484</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.99886803076543</v>
+        <v>12.39023150646462</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.17371613270149</v>
+        <v>14.31482723005872</v>
       </c>
       <c r="N3">
-        <v>13.89325720498401</v>
+        <v>15.96738654723888</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.46409713000218</v>
+        <v>13.57920906581804</v>
       </c>
       <c r="C4">
-        <v>13.59724772297591</v>
+        <v>7.674521770257978</v>
       </c>
       <c r="D4">
-        <v>4.375175055291966</v>
+        <v>5.156335859056874</v>
       </c>
       <c r="E4">
-        <v>9.521967921781346</v>
+        <v>11.592687425123</v>
       </c>
       <c r="F4">
-        <v>33.82301372759299</v>
+        <v>31.88641828128219</v>
       </c>
       <c r="G4">
-        <v>2.08195198762437</v>
+        <v>2.120957361757948</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.10145538698994</v>
+        <v>11.78323173181531</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.32418478056357</v>
+        <v>13.67283423658706</v>
       </c>
       <c r="N4">
-        <v>13.97660429501272</v>
+        <v>16.00908501070532</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.03196336618016</v>
+        <v>13.32577840691556</v>
       </c>
       <c r="C5">
-        <v>13.296263145393</v>
+        <v>7.507666733779768</v>
       </c>
       <c r="D5">
-        <v>4.393404549472893</v>
+        <v>5.173278154429193</v>
       </c>
       <c r="E5">
-        <v>9.359845190774099</v>
+        <v>11.37709268072151</v>
       </c>
       <c r="F5">
-        <v>33.35807767986363</v>
+        <v>31.58921177040029</v>
       </c>
       <c r="G5">
-        <v>2.084957305759731</v>
+        <v>2.123279432469243</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.72499044736375</v>
+        <v>11.52819832780913</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.96807756350044</v>
+        <v>13.45675224902174</v>
       </c>
       <c r="N5">
-        <v>14.01198824600429</v>
+        <v>16.02742311801536</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.95946692339899</v>
+        <v>13.2833782702787</v>
       </c>
       <c r="C6">
-        <v>13.24576732846524</v>
+        <v>7.479660961993223</v>
       </c>
       <c r="D6">
-        <v>4.396459042032317</v>
+        <v>5.176091945208821</v>
       </c>
       <c r="E6">
-        <v>9.332824777265172</v>
+        <v>11.34106609616713</v>
       </c>
       <c r="F6">
-        <v>33.28081570912187</v>
+        <v>31.53997150392416</v>
       </c>
       <c r="G6">
-        <v>2.085458746666539</v>
+        <v>2.123667206414501</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.66182290826525</v>
+        <v>11.48538372209165</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.90834154816982</v>
+        <v>13.42071245913993</v>
       </c>
       <c r="N6">
-        <v>14.01794725343754</v>
+        <v>16.03054773439865</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.45831877648157</v>
+        <v>13.57581266286673</v>
       </c>
       <c r="C7">
-        <v>13.59322313013981</v>
+        <v>7.672291546453026</v>
       </c>
       <c r="D7">
-        <v>4.375419044790519</v>
+        <v>5.156564325754828</v>
       </c>
       <c r="E7">
-        <v>9.519788263627788</v>
+        <v>11.58979517049526</v>
       </c>
       <c r="F7">
-        <v>33.81674772501223</v>
+        <v>31.88240281681973</v>
       </c>
       <c r="G7">
-        <v>2.081992358802391</v>
+        <v>2.120988531899251</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.09642208959594</v>
+        <v>11.77982347368982</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.31942260780025</v>
+        <v>13.66993093457267</v>
       </c>
       <c r="N7">
-        <v>13.97707584891153</v>
+        <v>16.00932695313306</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.55330837066532</v>
+        <v>14.86163976005645</v>
       </c>
       <c r="C8">
-        <v>15.05242745475037</v>
+        <v>8.479272660683677</v>
       </c>
       <c r="D8">
-        <v>4.286764085950347</v>
+        <v>5.070326577065185</v>
       </c>
       <c r="E8">
-        <v>10.32956565528202</v>
+        <v>12.68685204182779</v>
       </c>
       <c r="F8">
-        <v>36.17024301476572</v>
+        <v>33.40764354370068</v>
       </c>
       <c r="G8">
-        <v>2.067023950925785</v>
+        <v>2.109475082529529</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>18.92028647414638</v>
+        <v>13.01200385657636</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.04692868959599</v>
+        <v>15.02686796713361</v>
       </c>
       <c r="N8">
-        <v>13.80939523883526</v>
+        <v>15.92765928702103</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.29458687771658</v>
+        <v>17.38324343133691</v>
       </c>
       <c r="C9">
-        <v>17.66042554688312</v>
+        <v>9.912144770959246</v>
       </c>
       <c r="D9">
-        <v>4.130340628317422</v>
+        <v>4.899437181509988</v>
       </c>
       <c r="E9">
-        <v>11.98718510467916</v>
+        <v>14.9040869626699</v>
       </c>
       <c r="F9">
-        <v>40.72711220366762</v>
+        <v>36.43414170039765</v>
       </c>
       <c r="G9">
-        <v>2.038607591187215</v>
+        <v>2.087871182815658</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>22.17412390598679</v>
+        <v>15.19418393779951</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.13853182656847</v>
+        <v>17.5338646400003</v>
       </c>
       <c r="N9">
-        <v>13.53213716302258</v>
+        <v>15.81485912391949</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.8364761610066</v>
+        <v>19.08127214086126</v>
       </c>
       <c r="C10">
-        <v>19.43553597919948</v>
+        <v>10.87895414980142</v>
       </c>
       <c r="D10">
-        <v>4.029079724677957</v>
+        <v>4.771162114928862</v>
       </c>
       <c r="E10">
-        <v>13.2454606427811</v>
+        <v>16.4101601942853</v>
       </c>
       <c r="F10">
-        <v>44.03630695066219</v>
+        <v>38.66989083587362</v>
       </c>
       <c r="G10">
-        <v>2.01803420279381</v>
+        <v>2.07245561344327</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.38380437865934</v>
+        <v>16.6619718841339</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.2455507983096</v>
+        <v>19.2274322775101</v>
       </c>
       <c r="N10">
-        <v>13.36673776550351</v>
+        <v>15.76540241946589</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.95235537521668</v>
+        <v>19.82199876015246</v>
       </c>
       <c r="C11">
-        <v>20.21594900785028</v>
+        <v>11.30141414220373</v>
       </c>
       <c r="D11">
-        <v>3.986903167366279</v>
+        <v>4.711802958009378</v>
       </c>
       <c r="E11">
-        <v>13.80213080882032</v>
+        <v>17.07089653012937</v>
       </c>
       <c r="F11">
-        <v>45.53552420802723</v>
+        <v>39.68874471623338</v>
       </c>
       <c r="G11">
-        <v>2.008670679635794</v>
+        <v>2.065507580251611</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.35381097561513</v>
+        <v>17.30205061585153</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.17254448705256</v>
+        <v>19.96791384965724</v>
       </c>
       <c r="N11">
-        <v>13.30168296523742</v>
+        <v>15.75129962990546</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.36952353231562</v>
+        <v>20.09810183092012</v>
       </c>
       <c r="C12">
-        <v>20.50791146244853</v>
+        <v>11.45901275511494</v>
       </c>
       <c r="D12">
-        <v>3.971592081591529</v>
+        <v>4.68914179535772</v>
       </c>
       <c r="E12">
-        <v>14.01095160713886</v>
+        <v>17.31780616859627</v>
       </c>
       <c r="F12">
-        <v>46.10273487814786</v>
+        <v>40.07482242712486</v>
       </c>
       <c r="G12">
-        <v>2.005117401400459</v>
+        <v>2.062882618290654</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>25.71645630465164</v>
+        <v>17.54061920211133</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.51944468582465</v>
+        <v>20.24421764245174</v>
       </c>
       <c r="N12">
-        <v>13.27870237306833</v>
+        <v>15.74727375625729</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.27991125966097</v>
+        <v>20.03883066829761</v>
       </c>
       <c r="C13">
-        <v>20.44518477284683</v>
+        <v>11.42517484484927</v>
       </c>
       <c r="D13">
-        <v>3.974858371434831</v>
+        <v>4.694031086068057</v>
       </c>
       <c r="E13">
-        <v>13.96606131318672</v>
+        <v>17.26477280185632</v>
       </c>
       <c r="F13">
-        <v>45.98059083584918</v>
+        <v>39.9916613815903</v>
       </c>
       <c r="G13">
-        <v>2.005883118221968</v>
+        <v>2.063447733713425</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>25.6385553631622</v>
+        <v>17.48940621287122</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.44491035514859</v>
+        <v>20.18488957863537</v>
       </c>
       <c r="N13">
-        <v>13.28357473013498</v>
+        <v>15.74808050387725</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.98678144753809</v>
+        <v>19.84480096854523</v>
       </c>
       <c r="C14">
-        <v>20.24003826532339</v>
+        <v>11.31442682016167</v>
       </c>
       <c r="D14">
-        <v>3.985629620242021</v>
+        <v>4.709942516542432</v>
       </c>
       <c r="E14">
-        <v>13.81934848953846</v>
+        <v>17.09127472554967</v>
       </c>
       <c r="F14">
-        <v>45.58219645298956</v>
+        <v>39.72050210549187</v>
       </c>
       <c r="G14">
-        <v>2.008378542942397</v>
+        <v>2.065291520153804</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>25.38373732514251</v>
+        <v>17.32175330847003</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.2011645097099</v>
+        <v>19.99072646774288</v>
       </c>
       <c r="N14">
-        <v>13.29975798840312</v>
+        <v>15.75094141796792</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.80654252399212</v>
+        <v>19.72538520225627</v>
       </c>
       <c r="C15">
-        <v>20.11392678733374</v>
+        <v>11.24628445525934</v>
       </c>
       <c r="D15">
-        <v>3.992316702666779</v>
+        <v>4.719663662492803</v>
       </c>
       <c r="E15">
-        <v>13.72923417810855</v>
+        <v>16.98457940888018</v>
       </c>
       <c r="F15">
-        <v>45.33811591192477</v>
+        <v>39.55444425054124</v>
       </c>
       <c r="G15">
-        <v>2.009905862592131</v>
+        <v>2.066421587432762</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>25.2270574145969</v>
+        <v>17.21856911267495</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.05133777411092</v>
+        <v>19.87126834994923</v>
       </c>
       <c r="N15">
-        <v>13.3098922839428</v>
+        <v>15.75286838239662</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.76277198082108</v>
+        <v>19.03223955002817</v>
       </c>
       <c r="C16">
-        <v>19.3840163772727</v>
+        <v>10.85100604544736</v>
       </c>
       <c r="D16">
-        <v>4.031922436043909</v>
+        <v>4.775017937778989</v>
       </c>
       <c r="E16">
-        <v>13.20878775793175</v>
+        <v>16.36650624478374</v>
       </c>
       <c r="F16">
-        <v>43.93823399018591</v>
+        <v>38.60334111596504</v>
       </c>
       <c r="G16">
-        <v>2.018645475906508</v>
+        <v>2.072910719577311</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>24.31973581191616</v>
+        <v>16.61959844274754</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.1843684393497</v>
+        <v>19.17845470513269</v>
       </c>
       <c r="N16">
-        <v>13.37120973403558</v>
+        <v>15.7665019237971</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.11237842978583</v>
+        <v>18.59900699398358</v>
       </c>
       <c r="C17">
-        <v>18.92952339759984</v>
+        <v>10.60415209899951</v>
       </c>
       <c r="D17">
-        <v>4.057280132584689</v>
+        <v>4.808692239063818</v>
       </c>
       <c r="E17">
-        <v>12.88567165750871</v>
+        <v>15.98123507620549</v>
       </c>
       <c r="F17">
-        <v>43.07809046156464</v>
+        <v>38.02031087201004</v>
       </c>
       <c r="G17">
-        <v>2.024001207192973</v>
+        <v>2.076905980688292</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.75436873605971</v>
+        <v>16.24518111741827</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.64470870903046</v>
+        <v>18.74590834251894</v>
       </c>
       <c r="N17">
-        <v>13.41156043906147</v>
+        <v>15.77708877762949</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.7344543070299</v>
+        <v>18.3468268901041</v>
       </c>
       <c r="C18">
-        <v>18.66553844814778</v>
+        <v>10.46052789257083</v>
       </c>
       <c r="D18">
-        <v>4.072223856844243</v>
+        <v>4.827968639609852</v>
       </c>
       <c r="E18">
-        <v>12.69832442294631</v>
+        <v>15.75732834371361</v>
       </c>
       <c r="F18">
-        <v>42.58274741752901</v>
+        <v>37.68513268050263</v>
       </c>
       <c r="G18">
-        <v>2.027081716335753</v>
+        <v>2.079210238457922</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.42584662124795</v>
+        <v>16.02721572588904</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.33131900110853</v>
+        <v>18.49428854157904</v>
       </c>
       <c r="N18">
-        <v>13.4357148636711</v>
+        <v>15.78396120437191</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.60582507424252</v>
+        <v>18.26092365835261</v>
       </c>
       <c r="C19">
-        <v>18.57570642434528</v>
+        <v>10.41161410571029</v>
       </c>
       <c r="D19">
-        <v>4.077342415800722</v>
+        <v>4.834480571310437</v>
       </c>
       <c r="E19">
-        <v>12.63462638463788</v>
+        <v>15.68111479066606</v>
       </c>
       <c r="F19">
-        <v>42.41491907921901</v>
+        <v>37.57167657203871</v>
       </c>
       <c r="G19">
-        <v>2.028124922228191</v>
+        <v>2.079991591954378</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>23.31403049043589</v>
+        <v>15.95296348883536</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.2246855798125</v>
+        <v>18.40860237964578</v>
       </c>
       <c r="N19">
-        <v>13.44405028421581</v>
+        <v>15.78641950726289</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.18200795540682</v>
+        <v>18.64543428513042</v>
       </c>
       <c r="C20">
-        <v>18.97816894091571</v>
+        <v>10.63059908455813</v>
       </c>
       <c r="D20">
-        <v>4.054542981497647</v>
+        <v>4.805117356193942</v>
       </c>
       <c r="E20">
-        <v>12.92022118150772</v>
+        <v>16.02248537180762</v>
       </c>
       <c r="F20">
-        <v>43.16971528623726</v>
+        <v>38.08235852726025</v>
       </c>
       <c r="G20">
-        <v>2.023431123335709</v>
+        <v>2.076480049323071</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>23.81489586630077</v>
+        <v>16.28530756043619</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.70246333585451</v>
+        <v>18.79224518659412</v>
       </c>
       <c r="N20">
-        <v>13.40716587785685</v>
+        <v>15.77587999436006</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.0730234058145</v>
+        <v>19.9019100275566</v>
       </c>
       <c r="C21">
-        <v>20.30038857548847</v>
+        <v>11.34701974515782</v>
       </c>
       <c r="D21">
-        <v>3.982447002360549</v>
+        <v>4.705274241965456</v>
       </c>
       <c r="E21">
-        <v>13.86249281557905</v>
+        <v>17.14232300647145</v>
       </c>
       <c r="F21">
-        <v>45.69922456801595</v>
+        <v>39.80014075895755</v>
       </c>
       <c r="G21">
-        <v>2.007645840054394</v>
+        <v>2.064749816769887</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>25.45870710643461</v>
+        <v>17.37109925062245</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.27286726721466</v>
+        <v>20.04786643892437</v>
       </c>
       <c r="N21">
-        <v>13.29495801280322</v>
+        <v>15.75006450968552</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.2777314835492</v>
+        <v>20.69756886260862</v>
       </c>
       <c r="C22">
-        <v>21.1439584301311</v>
+        <v>11.80144526906827</v>
       </c>
       <c r="D22">
-        <v>3.939241219805281</v>
+        <v>4.63893245863455</v>
       </c>
       <c r="E22">
-        <v>14.46695616466982</v>
+        <v>17.85509967702114</v>
       </c>
       <c r="F22">
-        <v>47.34972870924483</v>
+        <v>40.92437559056707</v>
       </c>
       <c r="G22">
-        <v>1.997281456785247</v>
+        <v>2.057117283853327</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>26.50600215572331</v>
+        <v>18.05857235295381</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.27535948664494</v>
+        <v>20.84469698942052</v>
       </c>
       <c r="N22">
-        <v>13.23137727709499</v>
+        <v>15.74091307475549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.63745228430293</v>
+        <v>20.27518593181319</v>
       </c>
       <c r="C23">
-        <v>20.69548913991526</v>
+        <v>11.56013053435593</v>
       </c>
       <c r="D23">
-        <v>3.96190318368809</v>
+        <v>4.674453779789412</v>
       </c>
       <c r="E23">
-        <v>14.14527735228191</v>
+        <v>17.47634968513877</v>
       </c>
       <c r="F23">
-        <v>46.46889982753937</v>
+        <v>40.32418880463116</v>
       </c>
       <c r="G23">
-        <v>2.002820047026772</v>
+        <v>2.06118896062112</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.94937262277777</v>
+        <v>17.69362620796245</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.74234662373046</v>
+        <v>20.42151740975278</v>
       </c>
       <c r="N23">
-        <v>13.26434807370595</v>
+        <v>15.74505243432543</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.15054095026292</v>
+        <v>18.62445420280447</v>
       </c>
       <c r="C24">
-        <v>18.9561846967438</v>
+        <v>10.61864772044533</v>
       </c>
       <c r="D24">
-        <v>4.055779317204669</v>
+        <v>4.806733817675418</v>
       </c>
       <c r="E24">
-        <v>12.9046062946605</v>
+        <v>16.0038436328296</v>
       </c>
       <c r="F24">
-        <v>43.1282943301314</v>
+        <v>38.05430673894043</v>
       </c>
       <c r="G24">
-        <v>2.023688853297354</v>
+        <v>2.076672589829461</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>23.78754243419551</v>
+        <v>16.26717484168755</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.67636225418102</v>
+        <v>18.77130548170126</v>
       </c>
       <c r="N24">
-        <v>13.40914969438157</v>
+        <v>15.77642404534106</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.32014261070611</v>
+        <v>16.72879503158903</v>
       </c>
       <c r="C25">
-        <v>16.98072158123227</v>
+        <v>9.540011173869052</v>
       </c>
       <c r="D25">
-        <v>4.170519293766139</v>
+        <v>4.946017026700657</v>
       </c>
       <c r="E25">
-        <v>11.50820007670608</v>
+        <v>14.3265655946275</v>
       </c>
       <c r="F25">
-        <v>39.50142125635834</v>
+        <v>35.61275627119485</v>
       </c>
       <c r="G25">
-        <v>2.04622023703217</v>
+        <v>2.09362469570493</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>21.32689267512916</v>
+        <v>14.62819210841554</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.33231158706688</v>
+        <v>16.88240720208718</v>
       </c>
       <c r="N25">
-        <v>13.60097691334469</v>
+        <v>15.83986229049235</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.22851171689977</v>
+        <v>12.38642097803611</v>
       </c>
       <c r="C2">
-        <v>8.687616626870415</v>
+        <v>8.926515124704485</v>
       </c>
       <c r="D2">
-        <v>5.046895497392046</v>
+        <v>4.723619704080146</v>
       </c>
       <c r="E2">
-        <v>13.00816650221426</v>
+        <v>14.04359739458645</v>
       </c>
       <c r="F2">
-        <v>33.82376880685038</v>
+        <v>22.10142083785847</v>
       </c>
       <c r="G2">
-        <v>2.106426066393697</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>29.79112852422614</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.529294792507496</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.39424267753421</v>
       </c>
       <c r="K2">
-        <v>13.3297669121845</v>
+        <v>15.98299527901712</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.39114981716876</v>
+        <v>11.68834208649352</v>
       </c>
       <c r="N2">
-        <v>15.90858207000777</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>14.72941440870525</v>
+      </c>
+      <c r="P2">
+        <v>12.84749663304966</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.18797381762664</v>
+        <v>11.57436239655985</v>
       </c>
       <c r="C3">
-        <v>8.071884431035857</v>
+        <v>8.355724482613093</v>
       </c>
       <c r="D3">
-        <v>5.114757901254033</v>
+        <v>4.631970590118163</v>
       </c>
       <c r="E3">
-        <v>12.11234353051248</v>
+        <v>13.19511067733074</v>
       </c>
       <c r="F3">
-        <v>32.61990452135717</v>
+        <v>21.52984388227991</v>
       </c>
       <c r="G3">
-        <v>2.11534629531484</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>28.95323071423494</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.607332208797592</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.34686783829421</v>
       </c>
       <c r="K3">
-        <v>12.39023150646462</v>
+        <v>15.91909550383465</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>14.31482723005872</v>
+        <v>10.98098997263668</v>
       </c>
       <c r="N3">
-        <v>15.96738654723888</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>13.76265851695514</v>
+      </c>
+      <c r="P3">
+        <v>13.02359307127898</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.57920906581804</v>
+        <v>11.04411994421694</v>
       </c>
       <c r="C4">
-        <v>7.674521770257978</v>
+        <v>7.990339703752709</v>
       </c>
       <c r="D4">
-        <v>5.156335859056874</v>
+        <v>4.574376333358</v>
       </c>
       <c r="E4">
-        <v>11.592687425123</v>
+        <v>12.65819088111167</v>
       </c>
       <c r="F4">
-        <v>31.88641828128219</v>
+        <v>21.18295578283212</v>
       </c>
       <c r="G4">
-        <v>2.120957361757948</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>28.44301706942289</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.731692776081392</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.32188261325396</v>
       </c>
       <c r="K4">
-        <v>11.78323173181531</v>
+        <v>15.88483436153705</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.67283423658706</v>
+        <v>10.52290323303586</v>
       </c>
       <c r="N4">
-        <v>16.00908501070532</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>13.13690386182648</v>
+      </c>
+      <c r="P4">
+        <v>13.13347191887674</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.32577840691556</v>
+        <v>10.81438451743664</v>
       </c>
       <c r="C5">
-        <v>7.507666733779768</v>
+        <v>7.845107067359875</v>
       </c>
       <c r="D5">
-        <v>5.173278154429193</v>
+        <v>4.551716798914841</v>
       </c>
       <c r="E5">
-        <v>11.37709268072151</v>
+        <v>12.43590486064369</v>
       </c>
       <c r="F5">
-        <v>31.58921177040029</v>
+        <v>21.03329059644544</v>
       </c>
       <c r="G5">
-        <v>2.123279432469243</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>28.21928105759664</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.786769619645377</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.30971142838584</v>
       </c>
       <c r="K5">
-        <v>11.52819832780913</v>
+        <v>15.86496358865997</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.45675224902174</v>
+        <v>10.32939473828685</v>
       </c>
       <c r="N5">
-        <v>16.02742311801536</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>12.87335938630567</v>
+      </c>
+      <c r="P5">
+        <v>13.17728834779804</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.2833782702787</v>
+        <v>10.76882080761451</v>
       </c>
       <c r="C6">
-        <v>7.479660961993223</v>
+        <v>7.829850383923496</v>
       </c>
       <c r="D6">
-        <v>5.176091945208821</v>
+        <v>4.54932358619386</v>
       </c>
       <c r="E6">
-        <v>11.34106609616713</v>
+        <v>12.399172143232</v>
       </c>
       <c r="F6">
-        <v>31.53997150392416</v>
+        <v>20.99692054137476</v>
       </c>
       <c r="G6">
-        <v>2.123667206414501</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>28.16128166947134</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.800010512685307</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.3040874439116</v>
       </c>
       <c r="K6">
-        <v>11.48538372209165</v>
+        <v>15.85302795580916</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.42071245913993</v>
+        <v>10.29583013777003</v>
       </c>
       <c r="N6">
-        <v>16.03054773439865</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>12.82859640900158</v>
+      </c>
+      <c r="P6">
+        <v>13.18286168567158</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.57581266286673</v>
+        <v>11.02255920604342</v>
       </c>
       <c r="C7">
-        <v>7.672291546453026</v>
+        <v>8.012634901535101</v>
       </c>
       <c r="D7">
-        <v>5.156564325754828</v>
+        <v>4.577867185902928</v>
       </c>
       <c r="E7">
-        <v>11.58979517049526</v>
+        <v>12.65627845664194</v>
       </c>
       <c r="F7">
-        <v>31.88240281681973</v>
+        <v>21.14953407682344</v>
       </c>
       <c r="G7">
-        <v>2.120988531899251</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>28.38333894109772</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.743121481239964</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.31173334647584</v>
       </c>
       <c r="K7">
-        <v>11.77982347368982</v>
+        <v>15.86081462472615</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.66993093457267</v>
+        <v>10.5174433758786</v>
       </c>
       <c r="N7">
-        <v>16.00932695313306</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>13.13201642567772</v>
+      </c>
+      <c r="P7">
+        <v>13.12937381651601</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.86163976005645</v>
+        <v>12.09033660703606</v>
       </c>
       <c r="C8">
-        <v>8.479272660683677</v>
+        <v>8.762455507745154</v>
       </c>
       <c r="D8">
-        <v>5.070326577065185</v>
+        <v>4.697329273504112</v>
       </c>
       <c r="E8">
-        <v>12.68685204182779</v>
+        <v>13.75575154494453</v>
       </c>
       <c r="F8">
-        <v>33.40764354370068</v>
+        <v>21.8633339793544</v>
       </c>
       <c r="G8">
-        <v>2.109475082529529</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>29.42902174380236</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.492993502769804</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.36395364940087</v>
       </c>
       <c r="K8">
-        <v>13.01200385657636</v>
+        <v>15.92871603728709</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.02686796713361</v>
+        <v>11.44583388960551</v>
       </c>
       <c r="N8">
-        <v>15.92765928702103</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>14.40102642504286</v>
+      </c>
+      <c r="P8">
+        <v>12.90183141420012</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.38324343133691</v>
+        <v>13.96435940455443</v>
       </c>
       <c r="C9">
-        <v>9.912144770959246</v>
+        <v>10.07663167681299</v>
       </c>
       <c r="D9">
-        <v>4.899437181509988</v>
+        <v>4.91385241529562</v>
       </c>
       <c r="E9">
-        <v>14.9040869626699</v>
+        <v>15.93044341601743</v>
       </c>
       <c r="F9">
-        <v>36.43414170039765</v>
+        <v>23.34287609639071</v>
       </c>
       <c r="G9">
-        <v>2.087871182815658</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>31.60106286731389</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.917226820074672</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.5177526012512</v>
       </c>
       <c r="K9">
-        <v>15.19418393779951</v>
+        <v>16.14512014198005</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.5338646400003</v>
+        <v>13.08218071600741</v>
       </c>
       <c r="N9">
-        <v>15.81485912391949</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>16.63882517755932</v>
+      </c>
+      <c r="P9">
+        <v>12.47676880925308</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.08127214086126</v>
+        <v>15.18422526704029</v>
       </c>
       <c r="C10">
-        <v>10.87895414980142</v>
+        <v>10.98179450450177</v>
       </c>
       <c r="D10">
-        <v>4.771162114928862</v>
+        <v>5.067606077708145</v>
       </c>
       <c r="E10">
-        <v>16.4101601942853</v>
+        <v>17.49815556653166</v>
       </c>
       <c r="F10">
-        <v>38.66989083587362</v>
+        <v>24.42385874986737</v>
       </c>
       <c r="G10">
-        <v>2.07245561344327</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>33.17566693298448</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.234716771476662</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.6481402117526</v>
       </c>
       <c r="K10">
-        <v>16.6619718841339</v>
+        <v>16.32007011570756</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>19.2274322775101</v>
+        <v>14.16844757998687</v>
       </c>
       <c r="N10">
-        <v>15.76540241946589</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.13179972154914</v>
+      </c>
+      <c r="P10">
+        <v>12.16908181812974</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.82199876015246</v>
+        <v>15.6854405913941</v>
       </c>
       <c r="C11">
-        <v>11.30141414220373</v>
+        <v>11.40723296057449</v>
       </c>
       <c r="D11">
-        <v>4.711802958009378</v>
+        <v>5.141974153352606</v>
       </c>
       <c r="E11">
-        <v>17.07089653012937</v>
+        <v>18.1832110209807</v>
       </c>
       <c r="F11">
-        <v>39.68874471623338</v>
+        <v>24.87255911416572</v>
       </c>
       <c r="G11">
-        <v>2.065507580251611</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>33.81366968412478</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.379973643456732</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.69716568576462</v>
       </c>
       <c r="K11">
-        <v>17.30205061585153</v>
+        <v>16.36909176654954</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.96791384965724</v>
+        <v>14.63439724579946</v>
       </c>
       <c r="N11">
-        <v>15.75129962990546</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.77747168672334</v>
+      </c>
+      <c r="P11">
+        <v>12.02332479375073</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.09810183092012</v>
+        <v>15.88282601657379</v>
       </c>
       <c r="C12">
-        <v>11.45901275511494</v>
+        <v>11.55045451710559</v>
       </c>
       <c r="D12">
-        <v>4.68914179535772</v>
+        <v>5.166632964355813</v>
       </c>
       <c r="E12">
-        <v>17.31780616859627</v>
+        <v>18.43788443332873</v>
       </c>
       <c r="F12">
-        <v>40.07482242712486</v>
+        <v>25.06611298111332</v>
       </c>
       <c r="G12">
-        <v>2.062882618290654</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>34.09725625089081</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.432727421668571</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>10.72479275003565</v>
       </c>
       <c r="K12">
-        <v>17.54061920211133</v>
+        <v>16.40847731124721</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>20.24421764245174</v>
+        <v>14.80928227246629</v>
       </c>
       <c r="N12">
-        <v>15.74727375625729</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.01845086378501</v>
+      </c>
+      <c r="P12">
+        <v>11.97201060813208</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.03883066829761</v>
+        <v>15.84288276994835</v>
       </c>
       <c r="C13">
-        <v>11.42517484484927</v>
+        <v>11.51661966647583</v>
       </c>
       <c r="D13">
-        <v>4.694031086068057</v>
+        <v>5.160681155929415</v>
       </c>
       <c r="E13">
-        <v>17.26477280185632</v>
+        <v>18.38309196334314</v>
       </c>
       <c r="F13">
-        <v>39.9916613815903</v>
+        <v>25.02910367109583</v>
       </c>
       <c r="G13">
-        <v>2.063447733713425</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>34.04451847866167</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.42095418803733</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>10.7204638400627</v>
       </c>
       <c r="K13">
-        <v>17.48940621287122</v>
+        <v>16.40391718071776</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>20.18488957863537</v>
+        <v>14.77215752675796</v>
       </c>
       <c r="N13">
-        <v>15.74808050387725</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>18.96693896714804</v>
+      </c>
+      <c r="P13">
+        <v>11.98380222360738</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.84480096854523</v>
+        <v>15.70278323742139</v>
       </c>
       <c r="C14">
-        <v>11.31442682016167</v>
+        <v>11.41773735313268</v>
       </c>
       <c r="D14">
-        <v>4.709942516542432</v>
+        <v>5.143730294242173</v>
       </c>
       <c r="E14">
-        <v>17.09127472554967</v>
+        <v>18.20419108597311</v>
       </c>
       <c r="F14">
-        <v>39.72050210549187</v>
+        <v>24.89047969110834</v>
       </c>
       <c r="G14">
-        <v>2.065291520153804</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>33.84056257726394</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.384130736278407</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>10.70012775453871</v>
       </c>
       <c r="K14">
-        <v>17.32175330847003</v>
+        <v>16.37400000622903</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.99072646774288</v>
+        <v>14.64901961768368</v>
       </c>
       <c r="N14">
-        <v>15.75094141796792</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>18.79746734828829</v>
+      </c>
+      <c r="P14">
+        <v>12.01941756349207</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.72538520225627</v>
+        <v>15.6116481716569</v>
       </c>
       <c r="C15">
-        <v>11.24628445525934</v>
+        <v>11.36306860701113</v>
       </c>
       <c r="D15">
-        <v>4.719663662492803</v>
+        <v>5.134604030189767</v>
       </c>
       <c r="E15">
-        <v>16.98457940888018</v>
+        <v>18.09433033112924</v>
       </c>
       <c r="F15">
-        <v>39.55444425054124</v>
+        <v>24.79626379386697</v>
       </c>
       <c r="G15">
-        <v>2.066421587432762</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>33.69902205830669</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.362480969229361</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>10.68449965525543</v>
       </c>
       <c r="K15">
-        <v>17.21856911267495</v>
+        <v>16.3479681459956</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.87126834994923</v>
+        <v>14.5723712380066</v>
       </c>
       <c r="N15">
-        <v>15.75286838239662</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>18.69270346898893</v>
+      </c>
+      <c r="P15">
+        <v>12.03978105823044</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.03223955002817</v>
+        <v>15.11006134140828</v>
       </c>
       <c r="C16">
-        <v>10.85100604544736</v>
+        <v>11.0068966462412</v>
       </c>
       <c r="D16">
-        <v>4.775017937778989</v>
+        <v>5.073602377084483</v>
       </c>
       <c r="E16">
-        <v>16.36650624478374</v>
+        <v>17.4549971084404</v>
       </c>
       <c r="F16">
-        <v>38.60334111596504</v>
+        <v>24.31506090163289</v>
       </c>
       <c r="G16">
-        <v>2.072910719577311</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>32.99210132395206</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.232201325172269</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>10.61731097863536</v>
       </c>
       <c r="K16">
-        <v>16.61959844274754</v>
+        <v>16.25063650053029</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>19.17845470513269</v>
+        <v>14.13092444664722</v>
       </c>
       <c r="N16">
-        <v>15.7665019237971</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>18.08575002808064</v>
+      </c>
+      <c r="P16">
+        <v>12.16615507088225</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.59900699398358</v>
+        <v>14.79418389613372</v>
       </c>
       <c r="C17">
-        <v>10.60415209899951</v>
+        <v>10.78472169233124</v>
       </c>
       <c r="D17">
-        <v>4.808692239063818</v>
+        <v>5.035710112251164</v>
       </c>
       <c r="E17">
-        <v>15.98123507620549</v>
+        <v>17.0553820559215</v>
       </c>
       <c r="F17">
-        <v>38.02031087201004</v>
+        <v>24.01997134115755</v>
       </c>
       <c r="G17">
-        <v>2.076905980688292</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>32.55820574002207</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.151858083235514</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>10.57752845142138</v>
       </c>
       <c r="K17">
-        <v>16.24518111741827</v>
+        <v>16.19284865199185</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.74590834251894</v>
+        <v>13.85381386085776</v>
       </c>
       <c r="N17">
-        <v>15.77708877762949</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>17.70533277949696</v>
+      </c>
+      <c r="P17">
+        <v>12.24401113077023</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.3468268901041</v>
+        <v>14.62219900244117</v>
       </c>
       <c r="C18">
-        <v>10.46052789257083</v>
+        <v>10.63892464456141</v>
       </c>
       <c r="D18">
-        <v>4.827968639609852</v>
+        <v>5.010422383789925</v>
       </c>
       <c r="E18">
-        <v>15.75732834371361</v>
+        <v>16.82208160858618</v>
       </c>
       <c r="F18">
-        <v>37.68513268050263</v>
+        <v>23.87484237587832</v>
       </c>
       <c r="G18">
-        <v>2.079210238457922</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>32.35243314463033</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.102365729185983</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.56361493418207</v>
       </c>
       <c r="K18">
-        <v>16.02721572588904</v>
+        <v>16.18049232500045</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.49428854157904</v>
+        <v>13.69414637249348</v>
       </c>
       <c r="N18">
-        <v>15.78396120437191</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>17.48452971564859</v>
+      </c>
+      <c r="P18">
+        <v>12.29269435839019</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.26092365835261</v>
+        <v>14.5536600663314</v>
       </c>
       <c r="C19">
-        <v>10.41161410571029</v>
+        <v>10.602131309042</v>
       </c>
       <c r="D19">
-        <v>4.834480571310437</v>
+        <v>5.004392732435226</v>
       </c>
       <c r="E19">
-        <v>15.68111479066606</v>
+        <v>16.74314832264333</v>
       </c>
       <c r="F19">
-        <v>37.57167657203871</v>
+        <v>23.8068349802611</v>
       </c>
       <c r="G19">
-        <v>2.079991591954378</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>32.24901080113817</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.087899603429423</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.55247802920877</v>
       </c>
       <c r="K19">
-        <v>15.95296348883536</v>
+        <v>16.16085925400527</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.40860237964578</v>
+        <v>13.63811416175679</v>
       </c>
       <c r="N19">
-        <v>15.78641950726289</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>17.40848730341085</v>
+      </c>
+      <c r="P19">
+        <v>12.30628776846647</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.64543428513042</v>
+        <v>14.82910789823866</v>
       </c>
       <c r="C20">
-        <v>10.63059908455813</v>
+        <v>10.80722321937101</v>
       </c>
       <c r="D20">
-        <v>4.805117356193942</v>
+        <v>5.039501065268266</v>
       </c>
       <c r="E20">
-        <v>16.02248537180762</v>
+        <v>17.09815265020595</v>
       </c>
       <c r="F20">
-        <v>38.08235852726025</v>
+        <v>24.05328719024587</v>
       </c>
       <c r="G20">
-        <v>2.076480049323071</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>32.6078113495546</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.160180094191619</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.5823708653504</v>
       </c>
       <c r="K20">
-        <v>16.28530756043619</v>
+        <v>16.20050894187274</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.79224518659412</v>
+        <v>13.88371153872737</v>
       </c>
       <c r="N20">
-        <v>15.77587999436006</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>17.74621531353694</v>
+      </c>
+      <c r="P20">
+        <v>12.23600548199073</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.9019100275566</v>
+        <v>15.73073612144756</v>
       </c>
       <c r="C21">
-        <v>11.34701974515782</v>
+        <v>11.46419431122996</v>
       </c>
       <c r="D21">
-        <v>4.705274241965456</v>
+        <v>5.152380034566902</v>
       </c>
       <c r="E21">
-        <v>17.14232300647145</v>
+        <v>18.25754990595215</v>
       </c>
       <c r="F21">
-        <v>39.80014075895755</v>
+        <v>24.90492420254663</v>
       </c>
       <c r="G21">
-        <v>2.064749816769887</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>33.85366230059497</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.397634367586856</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.69678438869442</v>
       </c>
       <c r="K21">
-        <v>17.37109925062245</v>
+        <v>16.36050163793883</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>20.04786643892437</v>
+        <v>14.68312421252591</v>
       </c>
       <c r="N21">
-        <v>15.75006450968552</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>18.84630267263747</v>
+      </c>
+      <c r="P21">
+        <v>12.00477331357702</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.69756886260862</v>
+        <v>16.31037115020842</v>
       </c>
       <c r="C22">
-        <v>11.80144526906827</v>
+        <v>11.85967744281018</v>
       </c>
       <c r="D22">
-        <v>4.63893245863455</v>
+        <v>5.219932738617791</v>
       </c>
       <c r="E22">
-        <v>17.85509967702114</v>
+        <v>18.9906207679078</v>
       </c>
       <c r="F22">
-        <v>40.92437559056707</v>
+        <v>25.49481327998963</v>
       </c>
       <c r="G22">
-        <v>2.057117283853327</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>34.7260142355466</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.547968615772479</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.78816318373447</v>
       </c>
       <c r="K22">
-        <v>18.05857235295381</v>
+        <v>16.49976850856078</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>20.84469698942052</v>
+        <v>15.18783467620285</v>
       </c>
       <c r="N22">
-        <v>15.74091307475549</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.54054426803557</v>
+      </c>
+      <c r="P22">
+        <v>11.85994950529328</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.27518593181319</v>
+        <v>16.01932531413657</v>
       </c>
       <c r="C23">
-        <v>11.56013053435593</v>
+        <v>11.62896952591298</v>
       </c>
       <c r="D23">
-        <v>4.674453779789412</v>
+        <v>5.179620677988953</v>
       </c>
       <c r="E23">
-        <v>17.47634968513877</v>
+        <v>18.60067127149343</v>
       </c>
       <c r="F23">
-        <v>40.32418880463116</v>
+        <v>25.21147980542915</v>
       </c>
       <c r="G23">
-        <v>2.06118896062112</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>34.31662079080904</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.465037912524398</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.75012162245887</v>
       </c>
       <c r="K23">
-        <v>17.69362620796245</v>
+        <v>16.45161474778208</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>20.42151740975278</v>
+        <v>14.92290858465403</v>
       </c>
       <c r="N23">
-        <v>15.74505243432543</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.17364678225001</v>
+      </c>
+      <c r="P23">
+        <v>11.94220292431058</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62445420280447</v>
+        <v>14.83994114260346</v>
       </c>
       <c r="C24">
-        <v>10.61864772044533</v>
+        <v>10.76227043945594</v>
       </c>
       <c r="D24">
-        <v>4.806733817675418</v>
+        <v>5.030777480836768</v>
       </c>
       <c r="E24">
-        <v>16.0038436328296</v>
+        <v>17.077378749193</v>
       </c>
       <c r="F24">
-        <v>38.05430673894043</v>
+        <v>24.08975367853995</v>
       </c>
       <c r="G24">
-        <v>2.076672589829461</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>32.67743082749526</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.150856376001391</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.59802248702471</v>
       </c>
       <c r="K24">
-        <v>16.26717484168755</v>
+        <v>16.23970474718509</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.77130548170126</v>
+        <v>13.87448312258107</v>
       </c>
       <c r="N24">
-        <v>15.77642404534106</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>17.72983161540224</v>
+      </c>
+      <c r="P24">
+        <v>12.24762070405223</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.72879503158903</v>
+        <v>13.45588106320814</v>
       </c>
       <c r="C25">
-        <v>9.540011173869052</v>
+        <v>9.770165224433109</v>
       </c>
       <c r="D25">
-        <v>4.946017026700657</v>
+        <v>4.86336118640597</v>
       </c>
       <c r="E25">
-        <v>14.3265655946275</v>
+        <v>15.32823770357093</v>
       </c>
       <c r="F25">
-        <v>35.61275627119485</v>
+        <v>22.88829956285408</v>
       </c>
       <c r="G25">
-        <v>2.09362469570493</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>30.91812851230161</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.802616472118234</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.45475538865512</v>
       </c>
       <c r="K25">
-        <v>14.62819210841554</v>
+        <v>16.03988340645699</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>16.88240720208718</v>
+        <v>12.65526986992207</v>
       </c>
       <c r="N25">
-        <v>15.83986229049235</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.05802227381076</v>
+      </c>
+      <c r="P25">
+        <v>12.5825204739533</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_51/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.38642097803611</v>
+        <v>12.02188865569461</v>
       </c>
       <c r="C2">
-        <v>8.926515124704485</v>
+        <v>9.340823408587273</v>
       </c>
       <c r="D2">
-        <v>4.723619704080146</v>
+        <v>4.794103965431126</v>
       </c>
       <c r="E2">
-        <v>14.04359739458645</v>
+        <v>14.07641638866961</v>
       </c>
       <c r="F2">
-        <v>22.10142083785847</v>
+        <v>21.22781529641259</v>
       </c>
       <c r="G2">
-        <v>29.79112852422614</v>
+        <v>27.7274052604916</v>
       </c>
       <c r="I2">
-        <v>2.529294792507496</v>
+        <v>2.595482553345586</v>
       </c>
       <c r="J2">
-        <v>10.39424267753421</v>
+        <v>10.4750756109254</v>
       </c>
       <c r="K2">
-        <v>15.98299527901712</v>
+        <v>15.18526936241212</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.00889815503789</v>
       </c>
       <c r="M2">
-        <v>11.68834208649352</v>
+        <v>9.54467715175606</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>14.72941440870525</v>
+        <v>11.63627841978512</v>
       </c>
       <c r="P2">
-        <v>12.84749663304966</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.70867403535473</v>
+      </c>
+      <c r="R2">
+        <v>12.6545635572889</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.57436239655985</v>
+        <v>11.28050822830606</v>
       </c>
       <c r="C3">
-        <v>8.355724482613093</v>
+        <v>8.682649047830969</v>
       </c>
       <c r="D3">
-        <v>4.631970590118163</v>
+        <v>4.673035397562632</v>
       </c>
       <c r="E3">
-        <v>13.19511067733074</v>
+        <v>13.22718433794343</v>
       </c>
       <c r="F3">
-        <v>21.52984388227991</v>
+        <v>20.74442633971654</v>
       </c>
       <c r="G3">
-        <v>28.95323071423494</v>
+        <v>27.07393368667829</v>
       </c>
       <c r="I3">
-        <v>2.607332208797592</v>
+        <v>2.518423025049545</v>
       </c>
       <c r="J3">
-        <v>10.34686783829421</v>
+        <v>10.41441495826495</v>
       </c>
       <c r="K3">
-        <v>15.91909550383465</v>
+        <v>15.1822213494976</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.11224114988327</v>
       </c>
       <c r="M3">
-        <v>10.98098997263668</v>
+        <v>9.431767516328835</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.76265851695514</v>
+        <v>10.94716705725276</v>
       </c>
       <c r="P3">
-        <v>13.02359307127898</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.75081601998302</v>
+      </c>
+      <c r="R3">
+        <v>12.82919370860824</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.04411994421694</v>
+        <v>10.79640370091309</v>
       </c>
       <c r="C4">
-        <v>7.990339703752709</v>
+        <v>8.260011192659363</v>
       </c>
       <c r="D4">
-        <v>4.574376333358</v>
+        <v>4.596997635562368</v>
       </c>
       <c r="E4">
-        <v>12.65819088111167</v>
+        <v>12.68979970875582</v>
       </c>
       <c r="F4">
-        <v>21.18295578283212</v>
+        <v>20.4508377621908</v>
       </c>
       <c r="G4">
-        <v>28.44301706942289</v>
+        <v>26.68129998171573</v>
       </c>
       <c r="I4">
-        <v>2.731692776081392</v>
+        <v>2.626710258811492</v>
       </c>
       <c r="J4">
-        <v>10.32188261325396</v>
+        <v>10.37827295949571</v>
       </c>
       <c r="K4">
-        <v>15.88483436153705</v>
+        <v>15.18359322543705</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.17488810206517</v>
       </c>
       <c r="M4">
-        <v>10.52290323303586</v>
+        <v>9.384393952215524</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.13690386182648</v>
+        <v>10.50086769306766</v>
       </c>
       <c r="P4">
-        <v>13.13347191887674</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.13056991017028</v>
+      </c>
+      <c r="R4">
+        <v>12.9380668301358</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.81438451743664</v>
+        <v>10.58639129369964</v>
       </c>
       <c r="C5">
-        <v>7.845107067359875</v>
+        <v>8.09078091552402</v>
       </c>
       <c r="D5">
-        <v>4.551716798914841</v>
+        <v>4.566814328754868</v>
       </c>
       <c r="E5">
-        <v>12.43590486064369</v>
+        <v>12.46732731848492</v>
       </c>
       <c r="F5">
-        <v>21.03329059644544</v>
+        <v>20.32291504075813</v>
       </c>
       <c r="G5">
-        <v>28.21928105759664</v>
+        <v>26.50688623274859</v>
       </c>
       <c r="I5">
-        <v>2.786769619645377</v>
+        <v>2.67569851934641</v>
       </c>
       <c r="J5">
-        <v>10.30971142838584</v>
+        <v>10.3609179854986</v>
       </c>
       <c r="K5">
-        <v>15.86496358865997</v>
+        <v>15.1782403568153</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.19438426315726</v>
       </c>
       <c r="M5">
-        <v>10.32939473828685</v>
+        <v>9.366377182969545</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.87335938630567</v>
+        <v>10.31235511772985</v>
       </c>
       <c r="P5">
-        <v>13.17728834779804</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>12.86930444598698</v>
+      </c>
+      <c r="R5">
+        <v>12.98165983792097</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.76882080761451</v>
+        <v>10.54440654965322</v>
       </c>
       <c r="C6">
-        <v>7.829850383923496</v>
+        <v>8.071779639712567</v>
       </c>
       <c r="D6">
-        <v>4.54932358619386</v>
+        <v>4.563260853318032</v>
       </c>
       <c r="E6">
-        <v>12.399172143232</v>
+        <v>12.43055859116878</v>
       </c>
       <c r="F6">
-        <v>20.99692054137476</v>
+        <v>20.29049377776064</v>
       </c>
       <c r="G6">
-        <v>28.16128166947134</v>
+        <v>26.45768907471025</v>
       </c>
       <c r="I6">
-        <v>2.800010512685307</v>
+        <v>2.688613677434618</v>
       </c>
       <c r="J6">
-        <v>10.3040874439116</v>
+        <v>10.35450556616678</v>
       </c>
       <c r="K6">
-        <v>15.85302795580916</v>
+        <v>15.16922092731564</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.19049217117835</v>
       </c>
       <c r="M6">
-        <v>10.29583013777003</v>
+        <v>9.358478072710536</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.82859640900158</v>
+        <v>10.27967280187536</v>
       </c>
       <c r="P6">
-        <v>13.18286168567158</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>12.82494109425215</v>
+      </c>
+      <c r="R6">
+        <v>12.98745487678523</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.02255920604342</v>
+        <v>10.77188593532514</v>
       </c>
       <c r="C7">
-        <v>8.012634901535101</v>
+        <v>8.272523117066212</v>
       </c>
       <c r="D7">
-        <v>4.577867185902928</v>
+        <v>4.603368149866975</v>
       </c>
       <c r="E7">
-        <v>12.65627845664194</v>
+        <v>12.69050959504602</v>
       </c>
       <c r="F7">
-        <v>21.14953407682344</v>
+        <v>20.39914222729095</v>
       </c>
       <c r="G7">
-        <v>28.38333894109772</v>
+        <v>26.70225945976116</v>
       </c>
       <c r="I7">
-        <v>2.743121481239964</v>
+        <v>2.64054660201142</v>
       </c>
       <c r="J7">
-        <v>10.31173334647584</v>
+        <v>10.32329702873546</v>
       </c>
       <c r="K7">
-        <v>15.86081462472615</v>
+        <v>15.15186307016507</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.14808873491093</v>
       </c>
       <c r="M7">
-        <v>10.5174433758786</v>
+        <v>9.36314104006715</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.13201642567772</v>
+        <v>10.48984884625873</v>
       </c>
       <c r="P7">
-        <v>13.12937381651601</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.12313631630207</v>
+      </c>
+      <c r="R7">
+        <v>12.93279806185011</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.09033660703606</v>
+        <v>11.73841230380798</v>
       </c>
       <c r="C8">
-        <v>8.762455507745154</v>
+        <v>9.116903322431183</v>
       </c>
       <c r="D8">
-        <v>4.697329273504112</v>
+        <v>4.767118487462247</v>
       </c>
       <c r="E8">
-        <v>13.75575154494453</v>
+        <v>13.79642452019128</v>
       </c>
       <c r="F8">
-        <v>21.8633339793544</v>
+        <v>20.95860667901756</v>
       </c>
       <c r="G8">
-        <v>29.42902174380236</v>
+        <v>27.68405403037208</v>
       </c>
       <c r="I8">
-        <v>2.492993502769804</v>
+        <v>2.541819137722446</v>
       </c>
       <c r="J8">
-        <v>10.36395364940087</v>
+        <v>10.29411186254701</v>
       </c>
       <c r="K8">
-        <v>15.92871603728709</v>
+        <v>15.12364762263423</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.99661295495723</v>
       </c>
       <c r="M8">
-        <v>11.44583388960551</v>
+        <v>9.457497704059879</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>14.40102642504286</v>
+        <v>11.38233353865135</v>
       </c>
       <c r="P8">
-        <v>12.90183141420012</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.3753186880191</v>
+      </c>
+      <c r="R8">
+        <v>12.70355124983527</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.96435940455443</v>
+        <v>13.44816842325013</v>
       </c>
       <c r="C9">
-        <v>10.07663167681299</v>
+        <v>10.62461566694196</v>
       </c>
       <c r="D9">
-        <v>4.91385241529562</v>
+        <v>5.056490014179228</v>
       </c>
       <c r="E9">
-        <v>15.93044341601743</v>
+        <v>15.97516911207308</v>
       </c>
       <c r="F9">
-        <v>23.34287609639071</v>
+        <v>22.20157298844992</v>
       </c>
       <c r="G9">
-        <v>31.60106286731389</v>
+        <v>29.475992704158</v>
       </c>
       <c r="I9">
-        <v>2.917226820074672</v>
+        <v>2.931505857460106</v>
       </c>
       <c r="J9">
-        <v>10.5177526012512</v>
+        <v>10.42518841441618</v>
       </c>
       <c r="K9">
-        <v>16.14512014198005</v>
+        <v>15.16920963288058</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.75314105270768</v>
       </c>
       <c r="M9">
-        <v>13.08218071600741</v>
+        <v>9.865451776660789</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.63882517755932</v>
+        <v>12.9734240025039</v>
       </c>
       <c r="P9">
-        <v>12.47676880925308</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>16.58972511576543</v>
+      </c>
+      <c r="R9">
+        <v>12.27960286733159</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.18422526704029</v>
+        <v>14.54202353354752</v>
       </c>
       <c r="C10">
-        <v>10.98179450450177</v>
+        <v>11.61022266379978</v>
       </c>
       <c r="D10">
-        <v>5.067606077708145</v>
+        <v>5.276658291889932</v>
       </c>
       <c r="E10">
-        <v>17.49815556653166</v>
+        <v>17.5564593626315</v>
       </c>
       <c r="F10">
-        <v>24.42385874986737</v>
+        <v>23.00922312610962</v>
       </c>
       <c r="G10">
-        <v>33.17566693298448</v>
+        <v>31.20779909608203</v>
       </c>
       <c r="I10">
-        <v>3.234716771476662</v>
+        <v>3.205022307234491</v>
       </c>
       <c r="J10">
-        <v>10.6481402117526</v>
+        <v>10.27583217662492</v>
       </c>
       <c r="K10">
-        <v>16.32007011570756</v>
+        <v>15.15901228030068</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.52665709322099</v>
       </c>
       <c r="M10">
-        <v>14.16844757998687</v>
+        <v>10.2081686010735</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.13179972154914</v>
+        <v>14.00256584052129</v>
       </c>
       <c r="P10">
-        <v>12.16908181812974</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.05335158116651</v>
+      </c>
+      <c r="R10">
+        <v>11.96349530672579</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.6854405913941</v>
+        <v>14.95962768882714</v>
       </c>
       <c r="C11">
-        <v>11.40723296057449</v>
+        <v>11.99385034979747</v>
       </c>
       <c r="D11">
-        <v>5.141974153352606</v>
+        <v>5.408302430604289</v>
       </c>
       <c r="E11">
-        <v>18.1832110209807</v>
+        <v>18.26576377335752</v>
       </c>
       <c r="F11">
-        <v>24.87255911416572</v>
+        <v>23.1621090673967</v>
       </c>
       <c r="G11">
-        <v>33.81366968412478</v>
+        <v>32.63266829069999</v>
       </c>
       <c r="I11">
-        <v>3.379973643456732</v>
+        <v>3.327646133989314</v>
       </c>
       <c r="J11">
-        <v>10.69716568576462</v>
+        <v>9.781190321452783</v>
       </c>
       <c r="K11">
-        <v>16.36909176654954</v>
+        <v>15.03312619158222</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>12.33917075886289</v>
       </c>
       <c r="M11">
-        <v>14.63439724579946</v>
+        <v>10.27462242771751</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.77747168672334</v>
+        <v>14.39914189302954</v>
       </c>
       <c r="P11">
-        <v>12.02332479375073</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.66570309870126</v>
+      </c>
+      <c r="R11">
+        <v>11.80061323295182</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.88282601657379</v>
+        <v>15.12196594575969</v>
       </c>
       <c r="C12">
-        <v>11.55045451710559</v>
+        <v>12.11215205563976</v>
       </c>
       <c r="D12">
-        <v>5.166632964355813</v>
+        <v>5.457795592593052</v>
       </c>
       <c r="E12">
-        <v>18.43788443332873</v>
+        <v>18.53158652128838</v>
       </c>
       <c r="F12">
-        <v>25.06611298111332</v>
+        <v>23.22203522431528</v>
       </c>
       <c r="G12">
-        <v>34.09725625089081</v>
+        <v>33.29992645082152</v>
       </c>
       <c r="I12">
-        <v>3.432727421668571</v>
+        <v>3.370442020883188</v>
       </c>
       <c r="J12">
-        <v>10.72479275003565</v>
+        <v>9.557955413606789</v>
       </c>
       <c r="K12">
-        <v>16.40847731124721</v>
+        <v>14.9927370347882</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.27362882891284</v>
       </c>
       <c r="M12">
-        <v>14.80928227246629</v>
+        <v>10.30723232822341</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.01845086378501</v>
+        <v>14.54278757701203</v>
       </c>
       <c r="P12">
-        <v>11.97201060813208</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.89176532607638</v>
+      </c>
+      <c r="R12">
+        <v>11.7400414659069</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.84288276994835</v>
+        <v>15.08962151176252</v>
       </c>
       <c r="C13">
-        <v>11.51661966647583</v>
+        <v>12.08401951963771</v>
       </c>
       <c r="D13">
-        <v>5.160681155929415</v>
+        <v>5.446287222507527</v>
       </c>
       <c r="E13">
-        <v>18.38309196334314</v>
+        <v>18.47430947635481</v>
       </c>
       <c r="F13">
-        <v>25.02910367109583</v>
+        <v>23.21456084315681</v>
       </c>
       <c r="G13">
-        <v>34.04451847866167</v>
+        <v>33.16050933319492</v>
       </c>
       <c r="I13">
-        <v>3.42095418803733</v>
+        <v>3.360618058357712</v>
       </c>
       <c r="J13">
-        <v>10.7204638400627</v>
+        <v>9.60913376923807</v>
       </c>
       <c r="K13">
-        <v>16.40391718071776</v>
+        <v>15.005538608748</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.29047491089141</v>
       </c>
       <c r="M13">
-        <v>14.77215752675796</v>
+        <v>10.30365009804101</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.96693896714804</v>
+        <v>14.51258804677313</v>
       </c>
       <c r="P13">
-        <v>11.98380222360738</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>18.84355523948189</v>
+      </c>
+      <c r="R13">
+        <v>11.7536532278025</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.70278323742139</v>
+        <v>14.97411184149799</v>
       </c>
       <c r="C14">
-        <v>11.41773735313268</v>
+        <v>12.00245609169842</v>
       </c>
       <c r="D14">
-        <v>5.143730294242173</v>
+        <v>5.412010648591503</v>
       </c>
       <c r="E14">
-        <v>18.20419108597311</v>
+        <v>18.28762339191875</v>
       </c>
       <c r="F14">
-        <v>24.89047969110834</v>
+        <v>23.16938080909331</v>
       </c>
       <c r="G14">
-        <v>33.84056257726394</v>
+        <v>32.68930640816173</v>
       </c>
       <c r="I14">
-        <v>3.384130736278407</v>
+        <v>3.330900437821266</v>
       </c>
       <c r="J14">
-        <v>10.70012775453871</v>
+        <v>9.764219496205637</v>
       </c>
       <c r="K14">
-        <v>16.37400000622903</v>
+        <v>15.03156395878975</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>12.33495688399933</v>
       </c>
       <c r="M14">
-        <v>14.64901961768368</v>
+        <v>10.27877637115441</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.79746734828829</v>
+        <v>14.4112837610969</v>
       </c>
       <c r="P14">
-        <v>12.01941756349207</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>18.68451210840705</v>
+      </c>
+      <c r="R14">
+        <v>11.79587680019232</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6116481716569</v>
+        <v>14.89781368393104</v>
       </c>
       <c r="C15">
-        <v>11.36306860701113</v>
+        <v>11.95737327278534</v>
       </c>
       <c r="D15">
-        <v>5.134604030189767</v>
+        <v>5.392816662966935</v>
       </c>
       <c r="E15">
-        <v>18.09433033112924</v>
+        <v>18.17324128121342</v>
       </c>
       <c r="F15">
-        <v>24.79626379386697</v>
+        <v>23.13002533962787</v>
       </c>
       <c r="G15">
-        <v>33.69902205830669</v>
+        <v>32.39575743747108</v>
       </c>
       <c r="I15">
-        <v>3.362480969229361</v>
+        <v>3.313987711007679</v>
       </c>
       <c r="J15">
-        <v>10.68449965525543</v>
+        <v>9.851088794063852</v>
       </c>
       <c r="K15">
-        <v>16.3479681459956</v>
+        <v>15.03891032899175</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.35643487888678</v>
       </c>
       <c r="M15">
-        <v>14.5723712380066</v>
+        <v>10.25641933292019</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.69270346898893</v>
+        <v>14.34741205564314</v>
       </c>
       <c r="P15">
-        <v>12.03978105823044</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>18.58586399363775</v>
+      </c>
+      <c r="R15">
+        <v>11.82052014580369</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.11006134140828</v>
+        <v>14.47428168182586</v>
       </c>
       <c r="C16">
-        <v>11.0068966462412</v>
+        <v>11.6378786664368</v>
       </c>
       <c r="D16">
-        <v>5.073602377084483</v>
+        <v>5.280113271265379</v>
       </c>
       <c r="E16">
-        <v>17.4549971084404</v>
+        <v>17.51195161875691</v>
       </c>
       <c r="F16">
-        <v>24.31506090163289</v>
+        <v>22.91972848347238</v>
       </c>
       <c r="G16">
-        <v>32.99210132395206</v>
+        <v>30.98789944700783</v>
       </c>
       <c r="I16">
-        <v>3.232201325172269</v>
+        <v>3.207292032447802</v>
       </c>
       <c r="J16">
-        <v>10.61731097863536</v>
+        <v>10.27712686185855</v>
       </c>
       <c r="K16">
-        <v>16.25063650053029</v>
+        <v>15.10484488345984</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>12.49585250275861</v>
       </c>
       <c r="M16">
-        <v>14.13092444664722</v>
+        <v>10.15161250572453</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.08575002808064</v>
+        <v>13.96917722135901</v>
       </c>
       <c r="P16">
-        <v>12.16615507088225</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>18.00931943267114</v>
+      </c>
+      <c r="R16">
+        <v>11.96487955068124</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.79418389613372</v>
+        <v>14.20092615678736</v>
       </c>
       <c r="C17">
-        <v>10.78472169233124</v>
+        <v>11.42217837635843</v>
       </c>
       <c r="D17">
-        <v>5.035710112251164</v>
+        <v>5.216224940802036</v>
       </c>
       <c r="E17">
-        <v>17.0553820559215</v>
+        <v>17.10244062539797</v>
       </c>
       <c r="F17">
-        <v>24.01997134115755</v>
+        <v>22.75449852659468</v>
       </c>
       <c r="G17">
-        <v>32.55820574002207</v>
+        <v>30.27512411178377</v>
       </c>
       <c r="I17">
-        <v>3.151858083235514</v>
+        <v>3.140590916552145</v>
       </c>
       <c r="J17">
-        <v>10.57752845142138</v>
+        <v>10.45451236637405</v>
       </c>
       <c r="K17">
-        <v>16.19284865199185</v>
+        <v>15.12683330129227</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.56867480434455</v>
       </c>
       <c r="M17">
-        <v>13.85381386085776</v>
+        <v>10.07471981656414</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.70533277949696</v>
+        <v>13.72201793905205</v>
       </c>
       <c r="P17">
-        <v>12.24401113077023</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>17.64347801841313</v>
+      </c>
+      <c r="R17">
+        <v>12.05055209000317</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.62219900244117</v>
+        <v>14.05098451268738</v>
       </c>
       <c r="C18">
-        <v>10.63892464456141</v>
+        <v>11.27374710381551</v>
       </c>
       <c r="D18">
-        <v>5.010422383789925</v>
+        <v>5.177801486447511</v>
       </c>
       <c r="E18">
-        <v>16.82208160858618</v>
+        <v>16.86480395602435</v>
       </c>
       <c r="F18">
-        <v>23.87484237587832</v>
+        <v>22.67009008050212</v>
       </c>
       <c r="G18">
-        <v>32.35243314463033</v>
+        <v>29.96221262657344</v>
       </c>
       <c r="I18">
-        <v>3.102365729185983</v>
+        <v>3.09742089875267</v>
       </c>
       <c r="J18">
-        <v>10.56361493418207</v>
+        <v>10.53246571009945</v>
       </c>
       <c r="K18">
-        <v>16.18049232500045</v>
+        <v>15.15157625986701</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.61901147576467</v>
       </c>
       <c r="M18">
-        <v>13.69414637249348</v>
+        <v>10.04170857603495</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.48452971564859</v>
+        <v>13.57621844301153</v>
       </c>
       <c r="P18">
-        <v>12.29269435839019</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>17.42949835789168</v>
+      </c>
+      <c r="R18">
+        <v>12.10160862374289</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.5536600663314</v>
+        <v>13.98989939871598</v>
       </c>
       <c r="C19">
-        <v>10.602131309042</v>
+        <v>11.23530849593267</v>
       </c>
       <c r="D19">
-        <v>5.004392732435226</v>
+        <v>5.16781967176647</v>
       </c>
       <c r="E19">
-        <v>16.74314832264333</v>
+        <v>16.78462462587802</v>
       </c>
       <c r="F19">
-        <v>23.8068349802611</v>
+        <v>22.62106951215433</v>
       </c>
       <c r="G19">
-        <v>32.24901080113817</v>
+        <v>29.83252611377231</v>
       </c>
       <c r="I19">
-        <v>3.087899603429423</v>
+        <v>3.085946307315907</v>
       </c>
       <c r="J19">
-        <v>10.55247802920877</v>
+        <v>10.54736825932085</v>
       </c>
       <c r="K19">
-        <v>16.16085925400527</v>
+        <v>15.1445100678114</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>12.62513861807877</v>
       </c>
       <c r="M19">
-        <v>13.63811416175679</v>
+        <v>10.01793047258978</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.40848730341085</v>
+        <v>13.52438710503258</v>
       </c>
       <c r="P19">
-        <v>12.30628776846647</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.35554259494112</v>
+      </c>
+      <c r="R19">
+        <v>12.11652636689794</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.82910789823866</v>
+        <v>14.23149526547756</v>
       </c>
       <c r="C20">
-        <v>10.80722321937101</v>
+        <v>11.44458113967303</v>
       </c>
       <c r="D20">
-        <v>5.039501065268266</v>
+        <v>5.222555986301604</v>
       </c>
       <c r="E20">
-        <v>17.09815265020595</v>
+        <v>17.14612753990128</v>
       </c>
       <c r="F20">
-        <v>24.05328719024587</v>
+        <v>22.77528718199211</v>
       </c>
       <c r="G20">
-        <v>32.6078113495546</v>
+        <v>30.34868457298119</v>
       </c>
       <c r="I20">
-        <v>3.160180094191619</v>
+        <v>3.147398472160067</v>
       </c>
       <c r="J20">
-        <v>10.5823708653504</v>
+        <v>10.43951873056381</v>
       </c>
       <c r="K20">
-        <v>16.20050894187274</v>
+        <v>15.12662845767826</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.56242509531416</v>
       </c>
       <c r="M20">
-        <v>13.88371153872737</v>
+        <v>10.08456598708563</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.74621531353694</v>
+        <v>13.74905833293737</v>
       </c>
       <c r="P20">
-        <v>12.23600548199073</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>17.68296148791774</v>
+      </c>
+      <c r="R20">
+        <v>12.04176130160166</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.73073612144756</v>
+        <v>14.98478517180173</v>
       </c>
       <c r="C21">
-        <v>11.46419431122996</v>
+        <v>12.01724720695665</v>
       </c>
       <c r="D21">
-        <v>5.152380034566902</v>
+        <v>5.435702654154055</v>
       </c>
       <c r="E21">
-        <v>18.25754990595215</v>
+        <v>18.34994647581714</v>
       </c>
       <c r="F21">
-        <v>24.90492420254663</v>
+        <v>23.09572162114234</v>
       </c>
       <c r="G21">
-        <v>33.85366230059497</v>
+        <v>33.03351613770402</v>
       </c>
       <c r="I21">
-        <v>3.397634367586856</v>
+        <v>3.341879564684525</v>
       </c>
       <c r="J21">
-        <v>10.69678438869442</v>
+        <v>9.571099325229122</v>
       </c>
       <c r="K21">
-        <v>16.36050163793883</v>
+        <v>14.97133515710006</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.28653687339419</v>
       </c>
       <c r="M21">
-        <v>14.68312421252591</v>
+        <v>10.24125605269757</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.84630267263747</v>
+        <v>14.42343004517441</v>
       </c>
       <c r="P21">
-        <v>12.00477331357702</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>18.72325922507388</v>
+      </c>
+      <c r="R21">
+        <v>11.77535262555855</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.31037115020842</v>
+        <v>15.4671186277954</v>
       </c>
       <c r="C22">
-        <v>11.85967744281018</v>
+        <v>12.35129271903364</v>
       </c>
       <c r="D22">
-        <v>5.219932738617791</v>
+        <v>5.571987254408819</v>
       </c>
       <c r="E22">
-        <v>18.9906207679078</v>
+        <v>19.11226610284107</v>
       </c>
       <c r="F22">
-        <v>25.49481327998963</v>
+        <v>23.31885274491076</v>
       </c>
       <c r="G22">
-        <v>34.7260142355466</v>
+        <v>34.93036279690438</v>
       </c>
       <c r="I22">
-        <v>3.547968615772479</v>
+        <v>3.463049970758866</v>
       </c>
       <c r="J22">
-        <v>10.78816318373447</v>
+        <v>9.002698625916121</v>
       </c>
       <c r="K22">
-        <v>16.49976850856078</v>
+        <v>14.88607641052634</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.11856347229156</v>
       </c>
       <c r="M22">
-        <v>15.18783467620285</v>
+        <v>10.36597320953222</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.54054426803557</v>
+        <v>14.84402544219353</v>
       </c>
       <c r="P22">
-        <v>11.85994950529328</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>19.37709228473364</v>
+      </c>
+      <c r="R22">
+        <v>11.60443844923127</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.01932531413657</v>
+        <v>15.23467098931669</v>
       </c>
       <c r="C23">
-        <v>11.62896952591298</v>
+        <v>12.17201793055844</v>
       </c>
       <c r="D23">
-        <v>5.179620677988953</v>
+        <v>5.487529585858104</v>
       </c>
       <c r="E23">
-        <v>18.60067127149343</v>
+        <v>18.70211167504731</v>
       </c>
       <c r="F23">
-        <v>25.21147980542915</v>
+        <v>23.2745309652316</v>
       </c>
       <c r="G23">
-        <v>34.31662079080904</v>
+        <v>33.79059673357457</v>
       </c>
       <c r="I23">
-        <v>3.465037912524398</v>
+        <v>3.395330015378681</v>
       </c>
       <c r="J23">
-        <v>10.75012162245887</v>
+        <v>9.408784256426619</v>
       </c>
       <c r="K23">
-        <v>16.45161474778208</v>
+        <v>14.97934811380406</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.23987227590837</v>
       </c>
       <c r="M23">
-        <v>14.92290858465403</v>
+        <v>10.33951063315343</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.17364678225001</v>
+        <v>14.6348346447248</v>
       </c>
       <c r="P23">
-        <v>11.94220292431058</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.03667385574722</v>
+      </c>
+      <c r="R23">
+        <v>11.70263992348567</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.83994114260346</v>
+        <v>14.24340306074592</v>
       </c>
       <c r="C24">
-        <v>10.76227043945594</v>
+        <v>11.39894150824461</v>
       </c>
       <c r="D24">
-        <v>5.030777480836768</v>
+        <v>5.212234789134927</v>
       </c>
       <c r="E24">
-        <v>17.077378749193</v>
+        <v>17.12496435840312</v>
       </c>
       <c r="F24">
-        <v>24.08975367853995</v>
+        <v>22.81565117610542</v>
       </c>
       <c r="G24">
-        <v>32.67743082749526</v>
+        <v>30.40515081571003</v>
       </c>
       <c r="I24">
-        <v>3.150856376001391</v>
+        <v>3.136415104501407</v>
       </c>
       <c r="J24">
-        <v>10.59802248702471</v>
+        <v>10.46264519270083</v>
       </c>
       <c r="K24">
-        <v>16.23970474718509</v>
+        <v>15.16601931742138</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.59275728055032</v>
       </c>
       <c r="M24">
-        <v>13.87448312258107</v>
+        <v>10.11287443464495</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.72983161540224</v>
+        <v>13.74094427892858</v>
       </c>
       <c r="P24">
-        <v>12.24762070405223</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>17.66711363187077</v>
+      </c>
+      <c r="R24">
+        <v>12.05168437608196</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.45588106320814</v>
+        <v>12.9876383712174</v>
       </c>
       <c r="C25">
-        <v>9.770165224433109</v>
+        <v>10.28187684030619</v>
       </c>
       <c r="D25">
-        <v>4.86336118640597</v>
+        <v>4.983358555418234</v>
       </c>
       <c r="E25">
-        <v>15.32823770357093</v>
+        <v>15.3686107733107</v>
       </c>
       <c r="F25">
-        <v>22.88829956285408</v>
+        <v>21.83876817367483</v>
       </c>
       <c r="G25">
-        <v>30.91812851230161</v>
+        <v>28.78889538345399</v>
       </c>
       <c r="I25">
-        <v>2.802616472118234</v>
+        <v>2.835316547240464</v>
       </c>
       <c r="J25">
-        <v>10.45475538865512</v>
+        <v>10.43439367943646</v>
       </c>
       <c r="K25">
-        <v>16.03988340645699</v>
+        <v>15.12784088195317</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.80056545793743</v>
       </c>
       <c r="M25">
-        <v>12.65526986992207</v>
+        <v>9.716880667741725</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.05802227381076</v>
+        <v>12.56551491446621</v>
       </c>
       <c r="P25">
-        <v>12.5825204739533</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>16.0185550655752</v>
+      </c>
+      <c r="R25">
+        <v>12.38932993534569</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
